--- a/distribution.xlsx
+++ b/distribution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,12 +464,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nome4</t>
+          <t>Nome8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno1</t>
         </is>
       </c>
     </row>
@@ -478,16 +478,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nome2</t>
+          <t>Nome11</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno1</t>
         </is>
       </c>
     </row>
@@ -496,16 +496,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nome3</t>
+          <t>Nome12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno2</t>
         </is>
       </c>
     </row>
@@ -514,436 +514,436 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nome2</t>
+          <t>Nome16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nome4</t>
+          <t>Nome19</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nome3</t>
+          <t>Nome21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nome4</t>
+          <t>Nome22</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nome4</t>
+          <t>Nome24</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nome1</t>
+          <t>Nome25</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nome4</t>
+          <t>Nome1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nome3</t>
+          <t>Nome9</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nome3</t>
+          <t>Nome11</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nome1</t>
+          <t>Nome12</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nome2</t>
+          <t>Nome13</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nome3</t>
+          <t>Nome14</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nome1</t>
+          <t>Nome16</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nome2</t>
+          <t>Nome17</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nome4</t>
+          <t>Nome25</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Nome3</t>
+          <t>Nome2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nome2</t>
+          <t>Nome3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nome4</t>
+          <t>Nome5</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nome3</t>
+          <t>Nome6</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
         <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nome1</t>
+          <t>Nome8</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nome2</t>
+          <t>Nome10</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nome4</t>
+          <t>Nome17</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nome4</t>
+          <t>Nome19</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
         <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nome2</t>
+          <t>Nome28</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
@@ -955,151 +955,2743 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nome1</t>
+          <t>Nome5</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nome4</t>
+          <t>Nome14</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nome4</t>
+          <t>Nome15</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
         <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nome4</t>
+          <t>Nome16</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nome2</t>
+          <t>Nome18</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nome3</t>
+          <t>Nome19</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nome1</t>
+          <t>Nome27</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>auditorio</t>
+          <t>Turno3</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
         <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>Nome28</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Nome2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Nome7</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Nome11</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Nome18</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Nome19</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Nome24</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Nome27</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Nome29</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Nome30</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Nome1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Nome10</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Nome13</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Nome14</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Nome16</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Nome22</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Nome24</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Nome26</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Nome30</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Nome1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Nome2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Nome3</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>Nome4</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>auditorio</t>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Nome10</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Nome14</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Nome22</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Nome27</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Nome29</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Nome2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>7</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Nome4</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>7</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Nome7</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Nome9</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Nome15</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>7</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Nome17</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>7</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Nome18</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Nome24</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Nome30</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Nome4</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Nome6</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>8</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Nome8</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>8</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Nome11</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>8</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Nome12</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>8</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Nome18</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>8</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Nome23</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>8</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Nome24</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Nome26</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>9</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Nome1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>9</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Nome2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>9</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Nome14</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>9</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Nome18</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>9</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Nome19</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>9</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Nome20</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>9</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Nome25</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>9</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Nome29</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>9</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Nome30</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Nome8</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Nome10</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Nome12</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Nome15</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Nome16</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Nome19</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Nome21</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Nome23</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Nome29</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Nome2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Nome3</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Nome6</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Nome13</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Nome18</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Nome24</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Nome25</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Nome26</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Nome30</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Nome3</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Nome7</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Nome8</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Nome16</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Nome17</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Nome19</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Nome23</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Nome25</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Nome28</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Nome1</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Nome3</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Nome4</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Nome10</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Nome12</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Nome15</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Nome16</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Nome21</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Nome26</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Nome5</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Nome8</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Nome10</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Nome16</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Nome18</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Nome19</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Nome23</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Nome24</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Nome26</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Nome1</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Nome2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Nome4</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Nome5</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Nome12</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Nome15</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Nome21</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Nome25</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Nome29</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Nome8</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Nome13</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Nome15</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Nome18</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Nome20</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Nome24</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Nome27</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Nome28</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Nome29</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1</v>
+      </c>
+      <c r="B155" t="n">
+        <v>7</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Nome1</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1</v>
+      </c>
+      <c r="B156" t="n">
+        <v>7</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Nome2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1</v>
+      </c>
+      <c r="B157" t="n">
+        <v>7</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Nome8</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>7</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Nome12</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1</v>
+      </c>
+      <c r="B159" t="n">
+        <v>7</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Nome13</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1</v>
+      </c>
+      <c r="B160" t="n">
+        <v>7</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Nome15</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1</v>
+      </c>
+      <c r="B161" t="n">
+        <v>7</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Nome18</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1</v>
+      </c>
+      <c r="B162" t="n">
+        <v>7</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Nome23</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1</v>
+      </c>
+      <c r="B163" t="n">
+        <v>7</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Nome30</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" t="n">
+        <v>8</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Nome4</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1</v>
+      </c>
+      <c r="B165" t="n">
+        <v>8</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Nome5</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" t="n">
+        <v>8</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Nome6</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1</v>
+      </c>
+      <c r="B167" t="n">
+        <v>8</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Nome8</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Nome10</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1</v>
+      </c>
+      <c r="B169" t="n">
+        <v>8</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Nome12</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Nome18</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Nome21</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Nome23</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Nome4</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Nome5</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Turno1</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" t="n">
+        <v>9</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Nome7</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1</v>
+      </c>
+      <c r="B176" t="n">
+        <v>9</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Nome9</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Nome10</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Turno2</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Nome16</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Nome18</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Nome19</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Turno3</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Nome21</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Turno3</t>
         </is>
       </c>
     </row>

--- a/distribution.xlsx
+++ b/distribution.xlsx
@@ -1,37 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruipe\Desktop\jeec\schedule_otimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2942FCFA-128D-4CD7-B559-65F356896AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Equipa</t>
+  </si>
+  <si>
+    <t>Turno</t>
+  </si>
+  <si>
+    <t>preference</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Nome2</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>TurnoWeb</t>
+  </si>
+  <si>
+    <t>Nome7</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>TurnoMK</t>
+  </si>
+  <si>
+    <t>Nome13</t>
+  </si>
+  <si>
+    <t>WebDev</t>
+  </si>
+  <si>
+    <t>Nome14</t>
+  </si>
+  <si>
+    <t>Nome1</t>
+  </si>
+  <si>
+    <t>Nome4</t>
+  </si>
+  <si>
+    <t>Nome5</t>
+  </si>
+  <si>
+    <t>Nome3</t>
+  </si>
+  <si>
+    <t>Nome6</t>
+  </si>
+  <si>
+    <t>Nome8</t>
+  </si>
+  <si>
+    <t>Nome9</t>
+  </si>
+  <si>
+    <t>Nome10</t>
+  </si>
+  <si>
+    <t>Nome11</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +132,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,136 +456,775 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Dia</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Horario</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Equipa</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Turno</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Nome1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>WebDev</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Turno1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Nome11</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>WebDev</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Turno1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Nome4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Speakers</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Turno1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Nome5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>WebDev</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Turno1</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
